--- a/statistics/HistoricalDistanceData/historical_distance/Q60448181-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60448181-en.xlsx
@@ -31,91 +31,91 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>RESULTS - 2020 Presidential Primary</t>
+  </si>
+  <si>
+    <t>West Virginia: Election Tools, Deadlines, Dates, Rules, and Links</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Trump administration rolls back Obama-era rule aimed at limiting power plants’ toxic wastewater</t>
+  </si>
+  <si>
+    <t>Poll shows incumbents leading races for surveyed WV voters</t>
+  </si>
+  <si>
     <t>Biden dominates the electoral map, but here's how the race could tighten</t>
   </si>
   <si>
-    <t>RESULTS - 2020 Presidential Primary</t>
-  </si>
-  <si>
-    <t>Trump administration rolls back Obama-era rule aimed at limiting power plants’ toxic wastewater</t>
-  </si>
-  <si>
-    <t>Poll shows incumbents leading races for surveyed WV voters</t>
+    <t>Voting &amp; Elections Toolkits</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>Voting &amp; Elections Toolkits</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>West Virginia: Election Tools, Deadlines, Dates, Rules, and Links</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-05-13T01:42:03UTC</t>
+  </si>
+  <si>
+    <t>2020-08-31T22:08:44UTC</t>
+  </si>
+  <si>
+    <t>2020-10-06T21:45:22UTC</t>
   </si>
   <si>
     <t>2020-08-06T13:13:00UTC</t>
   </si>
   <si>
-    <t>2020-05-13T01:42:03UTC</t>
-  </si>
-  <si>
-    <t>2020-08-31T22:08:44UTC</t>
-  </si>
-  <si>
-    <t>2020-10-06T21:45:22UTC</t>
-  </si>
-  <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://mountainpartywv.net/2020/05/12/results-2020-presidential-primary/</t>
+  </si>
+  <si>
+    <t>https://www.vote.org/state/west-virginia/</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/climate-environment/2020/08/31/coal-ash-epa-trump/</t>
+  </si>
+  <si>
+    <t>https://www.wowktv.com/news/elections/poll-shows-incumbents-leading-races-for-surveyed-wv-voters/</t>
+  </si>
+  <si>
     <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
   <si>
-    <t>https://mountainpartywv.net/2020/05/12/results-2020-presidential-primary/</t>
-  </si>
-  <si>
-    <t>https://www.washingtonpost.com/climate-environment/2020/08/31/coal-ash-epa-trump/</t>
-  </si>
-  <si>
-    <t>https://www.wowktv.com/news/elections/poll-shows-incumbents-leading-races-for-surveyed-wv-voters/</t>
+    <t>https://godort.libguides.com/votingtoolkit/texas</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>https://godort.libguides.com/votingtoolkit/texas</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.vote.org/state/west-virginia/</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -650,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -684,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
